--- a/biology/Histoire de la zoologie et de la botanique/Piotr_Vtorov/Piotr_Vtorov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Piotr_Vtorov/Piotr_Vtorov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piotr Pétrovitch Vtorov (en russe : Пётр Петро́вич Вто́ров), né le 1er août 1938 à Moscou et mort le 5 janvier 1979 dans cette même ville, est un zoologiste soviétique, ayant apporté d'importantes contributions dans le domaine de la biogéographie.
 </t>
@@ -511,26 +523,28 @@
           <t>Espèces nommées d'après Vtorov</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs espèces d'animaux sont nommées en l'honneur de Piotr Vtorov.
 Collembola:
-Cryptopygus vtorovi, Martynova, 1978[1]
-Drepanura vtorovi, 1970[2]
-Folsomia pseudovtorovi, Potapov &amp; Gulgenova, 2013[1]
-Folsomia vtorovi, Martynova, 1971[1]
-Friesea vtorovi, Tshelnokov, 1977[3]
-Onychiurus vtorovi, Martynova, 1976[4]
-Parisotoma vtorovi, Martynova, 1977[5]
+Cryptopygus vtorovi, Martynova, 1978
+Drepanura vtorovi, 1970
+Folsomia pseudovtorovi, Potapov &amp; Gulgenova, 2013
+Folsomia vtorovi, Martynova, 1971
+Friesea vtorovi, Tshelnokov, 1977
+Onychiurus vtorovi, Martynova, 1976
+Parisotoma vtorovi, Martynova, 1977
 Pseudoscorpionida:
-Dactylochelifer vtorovi, Mahnert, 1977[6].
-Oribatida[7]:
+Dactylochelifer vtorovi, Mahnert, 1977.
+Oribatida:
 Cultoribatula vtorovi, Krivolutsky, 1971
-Furcoppia vtorovi, 1971[8]
-Oxyoppia vtorovi, Rjabinin, 1987[9]
-Diptera[10]
-Campsicnemus vtorovi, Negrobov et Zlobin, 1978[11]
-Cheilosia vtorovi, Peck, 1969[12]</t>
+Furcoppia vtorovi, 1971
+Oxyoppia vtorovi, Rjabinin, 1987
+Diptera
+Campsicnemus vtorovi, Negrobov et Zlobin, 1978
+Cheilosia vtorovi, Peck, 1969</t>
         </is>
       </c>
     </row>
